--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Сотрудники ПЭО</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>Возраст</t>
+  </si>
+  <si>
+    <t>Шелякина Людмила Геннадьевна</t>
+  </si>
+  <si>
+    <t>&lt;40</t>
   </si>
 </sst>
 </file>
@@ -367,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -393,6 +399,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Сотрудники ПЭО</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>Возраст</t>
+  </si>
+  <si>
+    <t>Лесных Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>около 40</t>
   </si>
 </sst>
 </file>
@@ -367,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -393,6 +399,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
